--- a/Appendix 6 Between-Construct Similarity.xlsx
+++ b/Appendix 6 Between-Construct Similarity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisamens/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8424ED59-B622-A842-AC44-761AD1E8DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3DC377-DEB2-644B-8EFC-B3EAA79D3E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="1220" windowWidth="27700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1220" windowWidth="27700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="A339" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,7 +985,7 @@
     <col min="2" max="2" width="99.1640625" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="100.6640625" customWidth="1"/>
+    <col min="5" max="5" width="151.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2254,26 +2254,26 @@
         <v>0.84961460318535365</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>81</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2">
         <v>242</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>0.84885633399153948</v>
       </c>
     </row>
@@ -4094,26 +4094,26 @@
         <v>0.83465029685162262</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="136" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
         <v>86</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C136" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136">
+      <c r="C136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="2">
         <v>242</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="2">
         <v>0.83463394877914521</v>
       </c>
     </row>
@@ -7222,26 +7222,26 @@
         <v>0.81990719831563419</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272">
+    <row r="272" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
         <v>87</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C272" t="s">
-        <v>3</v>
-      </c>
-      <c r="D272">
+      <c r="C272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D272" s="2">
         <v>242</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="2">
         <v>0.81977865126217131</v>
       </c>
     </row>
@@ -7912,26 +7912,26 @@
         <v>0.81711221778164755</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302">
+    <row r="302" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
         <v>78</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C302" t="s">
-        <v>3</v>
-      </c>
-      <c r="D302">
+      <c r="C302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D302" s="2">
         <v>242</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="2">
         <v>0.81691897401278502</v>
       </c>
     </row>
@@ -8763,26 +8763,26 @@
         <v>0.81363448426238139</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A339">
+    <row r="339" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
         <v>242</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="2">
         <v>76</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E339" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F339" t="s">
-        <v>3</v>
-      </c>
-      <c r="G339">
+      <c r="F339" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G339" s="2">
         <v>0.81362009225331644</v>
       </c>
     </row>
@@ -11891,26 +11891,26 @@
         <v>0.80589555696886406</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A475">
+    <row r="475" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="2">
         <v>242</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C475" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="2">
         <v>77</v>
       </c>
-      <c r="E475" t="s">
+      <c r="E475" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F475" t="s">
-        <v>3</v>
-      </c>
-      <c r="G475">
+      <c r="F475" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G475" s="2">
         <v>0.80585324047346951</v>
       </c>
     </row>
@@ -14237,26 +14237,26 @@
         <v>0.80036324378935797</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A577">
+    <row r="577" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="2">
         <v>80</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C577" t="s">
-        <v>3</v>
-      </c>
-      <c r="D577">
+      <c r="C577" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D577" s="2">
         <v>242</v>
       </c>
-      <c r="E577" t="s">
+      <c r="E577" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F577" t="s">
+      <c r="F577" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G577">
+      <c r="G577" s="2">
         <v>0.80028541885324822</v>
       </c>
     </row>
